--- a/data/trans_camb/P26-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P26-Estudios-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.2316187511805776</v>
+        <v>0.2687149499667277</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.922901528862278</v>
+        <v>-3.688467975353168</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-14.18684010721733</v>
+        <v>-14.37069378387081</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.586700550247105</v>
+        <v>-2.336634517059786</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-15.40851027222431</v>
+        <v>-15.6995420004133</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-25.01837215720944</v>
+        <v>-25.16455466810118</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02576361432092376</v>
+        <v>0.2631302946640517</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-9.279105218306169</v>
+        <v>-9.139700367742865</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-19.09476210363895</v>
+        <v>-19.23186670471209</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.112631047420415</v>
+        <v>8.244340206012547</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.297366081381413</v>
+        <v>4.587040455173354</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-6.121242173447238</v>
+        <v>-6.051651359714288</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.12666600942401</v>
+        <v>5.642710803369212</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-7.776689815234541</v>
+        <v>-7.682533703464649</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-18.19264059179534</v>
+        <v>-18.4378248538909</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.728097050312558</v>
+        <v>5.672266763560295</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-3.466112972874194</v>
+        <v>-3.353336881583788</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-14.00238341792605</v>
+        <v>-13.89660798617867</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.01154476599776837</v>
+        <v>0.008871017867030711</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1673569102747113</v>
+        <v>-0.1576135194203742</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.5975369921201941</v>
+        <v>-0.6060554032769533</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.07518398922377607</v>
+        <v>-0.06805844894233785</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4501693247318776</v>
+        <v>-0.4536723569311678</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.724856140721333</v>
+        <v>-0.7314468345832259</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0001460366225532087</v>
+        <v>0.009548893414356076</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3172059113379551</v>
+        <v>-0.3121756899370842</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.6545712643469799</v>
+        <v>-0.6584624877747148</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.398299316918766</v>
+        <v>0.4114299019963432</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2103361373918594</v>
+        <v>0.2222590900254095</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.2889445375602376</v>
+        <v>-0.2896097101331708</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1686328922322187</v>
+        <v>0.1914688072526116</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.2446530645631247</v>
+        <v>-0.2479598295405651</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.5868226054708675</v>
+        <v>-0.5950359246530551</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2129350685006515</v>
+        <v>0.2145825010300473</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1302855109414406</v>
+        <v>-0.122235998992173</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.5180012549583893</v>
+        <v>-0.5196467657571991</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-8.869468063900987</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-24.26058876997134</v>
+        <v>-24.26058876997133</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4570123005970934</v>
+        <v>0.1786672935473491</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-9.108047789628218</v>
+        <v>-8.974350896203955</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-24.5841803732614</v>
+        <v>-24.4596643895775</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.98350531804221</v>
+        <v>-1.8114829660948</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-15.77143189628089</v>
+        <v>-15.31599683604842</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-30.03297344230958</v>
+        <v>-30.02322830851229</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.1019549411903085</v>
+        <v>0.2724658082233128</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-10.96374539770063</v>
+        <v>-11.19059927264624</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-26.37954689966053</v>
+        <v>-26.23235867020469</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.896157225528158</v>
+        <v>6.907185550474948</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.855347587013885</v>
+        <v>-2.698720160256437</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-18.77351379908359</v>
+        <v>-18.38368676660436</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.998097765048152</v>
+        <v>5.25392996154482</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-8.868536809312149</v>
+        <v>-8.876904522291817</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-24.16893981965834</v>
+        <v>-24.19873627397694</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.805437419482478</v>
+        <v>5.002957650086223</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-6.611079972738257</v>
+        <v>-6.466635677701889</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-22.31619397432158</v>
+        <v>-21.87539743146881</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.233993003036382</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.640039287679619</v>
+        <v>-0.6400392876796187</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.009398024476125581</v>
+        <v>0.00469481086304323</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2581982322472942</v>
+        <v>-0.2536738129299577</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7010501903366078</v>
+        <v>-0.7016861724385287</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.04348839453520634</v>
+        <v>-0.04080428618304133</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3492623757528239</v>
+        <v>-0.3500521680312376</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6751436377392193</v>
+        <v>-0.676200100973932</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.002887966205901276</v>
+        <v>0.006420282285348976</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2808462041405695</v>
+        <v>-0.2806296409667117</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.6747145189374262</v>
+        <v>-0.6708616729354425</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.212037685073463</v>
+        <v>0.2162350688395257</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.09073528384404016</v>
+        <v>-0.08359656499787052</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.5817722632585375</v>
+        <v>-0.5755208995460512</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1225157449798095</v>
+        <v>0.1299686618747283</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.2126478410723278</v>
+        <v>-0.2163023464845046</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.5916498427302829</v>
+        <v>-0.5913085323812767</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1320885246571402</v>
+        <v>0.1372761000772278</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1815461433852229</v>
+        <v>-0.1749543761534325</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.601435761443747</v>
+        <v>-0.6012503901148277</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>-5.976457308897057</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-16.61655392663357</v>
+        <v>-16.61655392663358</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.345058848952672</v>
+        <v>-1.982681023890412</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-10.9650961191016</v>
+        <v>-10.97740660675591</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-20.20327172435636</v>
+        <v>-20.74384907521516</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.218945581205532</v>
+        <v>-6.499508793038543</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-12.56790570775342</v>
+        <v>-12.59956256275352</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-22.82935906849489</v>
+        <v>-23.2119090032742</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.936424559677745</v>
+        <v>-2.660465954474646</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-9.396405265614511</v>
+        <v>-10.09241332088781</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-20.27347769453998</v>
+        <v>-19.83405465486883</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.929252781269122</v>
+        <v>9.995896254330436</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.1153918636853487</v>
+        <v>-0.0450198394773013</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-10.91892002774337</v>
+        <v>-10.25269511081297</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.213945858885373</v>
+        <v>6.431910516116979</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-0.7303750197351624</v>
+        <v>-0.4035616272558127</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-12.69715068774206</v>
+        <v>-13.25029189054758</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>6.395748485658909</v>
+        <v>6.250587131320517</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-1.739048337403962</v>
+        <v>-2.079285524378409</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-13.54159633388729</v>
+        <v>-13.39415206222695</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>-0.2195582433313165</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.6104454866465103</v>
+        <v>-0.6104454866465105</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.08731595608742192</v>
+        <v>-0.07167700484212239</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3911148438305961</v>
+        <v>-0.3981773460967335</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7109215280184481</v>
+        <v>-0.7199408820915071</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1993264739991246</v>
+        <v>-0.2089252755980303</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3852123931605299</v>
+        <v>-0.396665720987982</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.7042742757262224</v>
+        <v>-0.7119739574295681</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.06708211353498365</v>
+        <v>-0.09428684580132028</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3275099163933449</v>
+        <v>-0.3398190171892564</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.6865792743626274</v>
+        <v>-0.6763950440663152</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4213372721257442</v>
+        <v>0.4372364235920579</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.003882573042049782</v>
+        <v>-0.004326110594497979</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.4545099224130167</v>
+        <v>-0.4275927599945633</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2403989286676547</v>
+        <v>0.2515745446249888</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.0131433955819706</v>
+        <v>-0.01502430939092945</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.4943759682901624</v>
+        <v>-0.5159428368800449</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2511387549768023</v>
+        <v>0.2415518012170967</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.06959564697214538</v>
+        <v>-0.082804880051925</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.5304723141779514</v>
+        <v>-0.528902812345321</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-10.30743348008687</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-23.39165949061423</v>
+        <v>-23.39165949061422</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3.005372792385497</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.68757593686394</v>
+        <v>2.097524021328832</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.605809345548283</v>
+        <v>-5.699327511403812</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-19.49451925835498</v>
+        <v>-19.38530397041804</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.6845084127980881</v>
+        <v>-0.6826518675090075</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-12.67068765423747</v>
+        <v>-12.46412341036871</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-25.46838669490845</v>
+        <v>-25.38598059977543</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.263627675256215</v>
+        <v>1.153685325084791</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-8.511945108852034</v>
+        <v>-8.481496792054998</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-21.87484454347109</v>
+        <v>-21.95248361288981</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.650159903853386</v>
+        <v>6.628768550552228</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.9250227048793729</v>
+        <v>-1.313478768623245</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-15.00598674946065</v>
+        <v>-15.06746534316193</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.149129705966075</v>
+        <v>4.099713754619981</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-7.898021812718491</v>
+        <v>-7.91733732783728</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-21.33496416879421</v>
+        <v>-21.21671215445938</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.684205746630547</v>
+        <v>4.605352159735467</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-5.185047478938499</v>
+        <v>-5.129769915704207</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-18.88832289482546</v>
+        <v>-18.92526036767135</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.2779365223530602</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.630748333564165</v>
+        <v>-0.6307483335641649</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.09138240067888481</v>
@@ -1411,7 +1411,7 @@
         <v>-0.2083135430514837</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.6163367699863014</v>
+        <v>-0.6163367699863015</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.05792373480594053</v>
+        <v>0.06967567489140519</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1909511748829926</v>
+        <v>-0.1908948901625742</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.6520491568827043</v>
+        <v>-0.6527622262731914</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.01788418539053421</v>
+        <v>-0.0181820863231399</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3298221201849556</v>
+        <v>-0.3286631873064773</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.6648308108270021</v>
+        <v>-0.6640110977600386</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03759863827286364</v>
+        <v>0.03377830669643917</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2530485297908798</v>
+        <v>-0.2519330649673097</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.6456392005480313</v>
+        <v>-0.6474910668226003</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2429027290584213</v>
+        <v>0.2377320215287836</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.03635231182314504</v>
+        <v>-0.0457176096004276</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.5422428875144417</v>
+        <v>-0.5416628021727796</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1145778506679189</v>
+        <v>0.1140995057666089</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.2205756536348134</v>
+        <v>-0.2231067401571436</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.5941380075269945</v>
+        <v>-0.5925198558896713</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1451971019758483</v>
+        <v>0.1437933464307359</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1627141857834383</v>
+        <v>-0.1598589990968912</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.585789832040427</v>
+        <v>-0.5859627581577745</v>
       </c>
     </row>
     <row r="28">
